--- a/PhpTravelsAutomation/src/test/resources/testdata/phptravelsdashboard.xlsx
+++ b/PhpTravelsAutomation/src/test/resources/testdata/phptravelsdashboard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="115">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -322,6 +322,45 @@
   </si>
   <si>
     <t>4325</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>7894</t>
+  </si>
+  <si>
+    <t>28/11/2019</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>4537</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>6153</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>8613</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>6972</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>1367</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1366,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1364,13 +1403,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1381,13 +1420,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1398,13 +1437,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1415,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1432,13 +1471,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1449,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1466,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1483,10 +1522,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1500,10 +1539,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1517,10 +1556,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1534,10 +1573,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1551,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1568,10 +1607,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1585,10 +1624,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1602,10 +1641,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1619,10 +1658,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1636,13 +1675,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1653,13 +1692,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1670,13 +1709,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1687,13 +1726,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1704,13 +1743,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1721,13 +1760,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1738,13 +1777,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1755,13 +1794,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1772,13 +1811,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1789,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1806,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1823,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1840,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -1857,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1874,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1891,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -1908,13 +1947,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -1925,13 +1964,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -1942,13 +1981,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -1959,13 +1998,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -1976,13 +2015,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -1993,13 +2032,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -2010,15 +2049,99 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E46" t="s">
         <v>18</v>
       </c>
     </row>
